--- a/EditProject/Design/Stage/G_Prop.xlsx
+++ b/EditProject/Design/Stage/G_Prop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="5140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7395" yWindow="5145" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,14 +107,18 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -488,16 +488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -555,13 +555,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1"/>
@@ -571,7 +571,7 @@
         <v>6001001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>6001002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -629,14 +629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/EditProject/Design/Stage/G_Prop.xlsx
+++ b/EditProject/Design/Stage/G_Prop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="5145" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="7580" yWindow="4260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>螺旋玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,14 +103,46 @@
   </si>
   <si>
     <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加B弹个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -488,20 +512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="6" width="18" customWidth="1"/>
+    <col min="1" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -509,22 +533,25 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,89 +559,113 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1"/>
+    <row r="5" spans="1:8" hidden="1"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>8001001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>8001002</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>8001003</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1"/>
-    <row r="5" spans="1:7" hidden="1"/>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>6001001</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6001002</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6001003</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -629,18 +680,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
